--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-SIMUL-SET-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-SIMUL-SET-01).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,6 +561,10 @@
   </si>
   <si>
     <t>비중설정방식 변경시 포트폴리오의 비중값이 변경됨을 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,9 +812,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -866,13 +863,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,27 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2308,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2324,10 +2324,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2335,115 +2335,115 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="20">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="I4" s="22"/>
+      <c r="J4" s="20">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="20">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="323.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="323.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -2458,665 +2458,758 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="6" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="20" t="s">
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="20" t="s">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="20" t="s">
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="I18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="H19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="20" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="20" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="H21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="20" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="20" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="I24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>15</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="20" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="20" t="s">
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="H26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>18</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>17</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>19</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>20</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -3127,19 +3220,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3167,304 +3247,361 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="20">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="27" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="I4" s="22"/>
+      <c r="J4" s="20">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27" t="s">
+      <c r="E5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="I5" s="22"/>
+      <c r="J5" s="20">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
-      <c r="C12" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="C13" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
-      <c r="C14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="C14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="C15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
-      <c r="C16" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="C18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="C19" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
-      <c r="C20" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="C20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -3481,19 +3618,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3520,8 +3644,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>44</v>
+      <c r="A1" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3536,63 +3660,63 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="23"/>
+      <c r="E4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="23"/>
+      <c r="A6" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
@@ -3763,18 +3887,18 @@
       <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="23"/>
+      <c r="A21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
@@ -3945,18 +4069,18 @@
       <c r="J35" s="43"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="23"/>
+      <c r="A36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
@@ -4127,18 +4251,18 @@
       <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="23"/>
+      <c r="A51" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
@@ -4309,18 +4433,18 @@
       <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="23"/>
+      <c r="A66" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="25"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
@@ -4491,18 +4615,18 @@
       <c r="J80" s="43"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="23"/>
+      <c r="A81" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="25"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
@@ -4673,18 +4797,18 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="23"/>
+      <c r="A96" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="25"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
@@ -4855,18 +4979,18 @@
       <c r="J110" s="43"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="23"/>
+      <c r="A111" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="25"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
@@ -5037,18 +5161,18 @@
       <c r="J125" s="43"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="23"/>
+      <c r="A126" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="25"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
@@ -5219,18 +5343,18 @@
       <c r="J140" s="43"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="33"/>
-      <c r="J141" s="23"/>
+      <c r="A141" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="25"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="41"/>
@@ -5401,18 +5525,18 @@
       <c r="J155" s="43"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B156" s="33"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="33"/>
-      <c r="J156" s="23"/>
+      <c r="A156" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
+      <c r="J156" s="25"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
@@ -5583,18 +5707,18 @@
       <c r="J170" s="43"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="23"/>
+      <c r="A171" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B171" s="24"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="25"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="41"/>
@@ -5765,18 +5889,18 @@
       <c r="J185" s="43"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B186" s="33"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="23"/>
+      <c r="A186" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="24"/>
+      <c r="H186" s="24"/>
+      <c r="I186" s="24"/>
+      <c r="J186" s="25"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="41"/>
@@ -5947,18 +6071,18 @@
       <c r="J200" s="43"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="B201" s="33"/>
-      <c r="C201" s="33"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="33"/>
-      <c r="J201" s="23"/>
+      <c r="A201" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B201" s="24"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="24"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="24"/>
+      <c r="I201" s="24"/>
+      <c r="J201" s="25"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="41"/>
@@ -6129,18 +6253,18 @@
       <c r="J215" s="43"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B216" s="33"/>
-      <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="23"/>
+      <c r="A216" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B216" s="24"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="24"/>
+      <c r="F216" s="24"/>
+      <c r="G216" s="24"/>
+      <c r="H216" s="24"/>
+      <c r="I216" s="24"/>
+      <c r="J216" s="25"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="41"/>
@@ -6311,18 +6435,18 @@
       <c r="J230" s="43"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A231" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B231" s="33"/>
-      <c r="C231" s="33"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="33"/>
-      <c r="H231" s="33"/>
-      <c r="I231" s="33"/>
-      <c r="J231" s="23"/>
+      <c r="A231" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B231" s="24"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="24"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="24"/>
+      <c r="H231" s="24"/>
+      <c r="I231" s="24"/>
+      <c r="J231" s="25"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="41"/>
@@ -6493,18 +6617,18 @@
       <c r="J245" s="43"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A246" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B246" s="33"/>
-      <c r="C246" s="33"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="23"/>
+      <c r="A246" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B246" s="24"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="24"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="24"/>
+      <c r="H246" s="24"/>
+      <c r="I246" s="24"/>
+      <c r="J246" s="25"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="41"/>
@@ -6675,18 +6799,18 @@
       <c r="J260" s="43"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A261" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B261" s="33"/>
-      <c r="C261" s="33"/>
-      <c r="D261" s="33"/>
-      <c r="E261" s="33"/>
-      <c r="F261" s="33"/>
-      <c r="G261" s="33"/>
-      <c r="H261" s="33"/>
-      <c r="I261" s="33"/>
-      <c r="J261" s="23"/>
+      <c r="A261" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B261" s="24"/>
+      <c r="C261" s="24"/>
+      <c r="D261" s="24"/>
+      <c r="E261" s="24"/>
+      <c r="F261" s="24"/>
+      <c r="G261" s="24"/>
+      <c r="H261" s="24"/>
+      <c r="I261" s="24"/>
+      <c r="J261" s="25"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="41"/>
@@ -6857,18 +6981,18 @@
       <c r="J275" s="43"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A276" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B276" s="33"/>
-      <c r="C276" s="33"/>
-      <c r="D276" s="33"/>
-      <c r="E276" s="33"/>
-      <c r="F276" s="33"/>
-      <c r="G276" s="33"/>
-      <c r="H276" s="33"/>
-      <c r="I276" s="33"/>
-      <c r="J276" s="23"/>
+      <c r="A276" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B276" s="24"/>
+      <c r="C276" s="24"/>
+      <c r="D276" s="24"/>
+      <c r="E276" s="24"/>
+      <c r="F276" s="24"/>
+      <c r="G276" s="24"/>
+      <c r="H276" s="24"/>
+      <c r="I276" s="24"/>
+      <c r="J276" s="25"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="41"/>
@@ -7039,18 +7163,18 @@
       <c r="J290" s="43"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A291" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B291" s="33"/>
-      <c r="C291" s="33"/>
-      <c r="D291" s="33"/>
-      <c r="E291" s="33"/>
-      <c r="F291" s="33"/>
-      <c r="G291" s="33"/>
-      <c r="H291" s="33"/>
-      <c r="I291" s="33"/>
-      <c r="J291" s="23"/>
+      <c r="A291" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B291" s="24"/>
+      <c r="C291" s="24"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="24"/>
+      <c r="F291" s="24"/>
+      <c r="G291" s="24"/>
+      <c r="H291" s="24"/>
+      <c r="I291" s="24"/>
+      <c r="J291" s="25"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="41"/>
@@ -7221,16 +7345,16 @@
       <c r="J305" s="43"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A306" s="22"/>
-      <c r="B306" s="33"/>
-      <c r="C306" s="33"/>
-      <c r="D306" s="33"/>
-      <c r="E306" s="33"/>
-      <c r="F306" s="33"/>
-      <c r="G306" s="33"/>
-      <c r="H306" s="33"/>
-      <c r="I306" s="33"/>
-      <c r="J306" s="23"/>
+      <c r="A306" s="30"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="24"/>
+      <c r="D306" s="24"/>
+      <c r="E306" s="24"/>
+      <c r="F306" s="24"/>
+      <c r="G306" s="24"/>
+      <c r="H306" s="24"/>
+      <c r="I306" s="24"/>
+      <c r="J306" s="25"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="41"/>
@@ -7401,16 +7525,16 @@
       <c r="J320" s="43"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A321" s="22"/>
-      <c r="B321" s="33"/>
-      <c r="C321" s="33"/>
-      <c r="D321" s="33"/>
-      <c r="E321" s="33"/>
-      <c r="F321" s="33"/>
-      <c r="G321" s="33"/>
-      <c r="H321" s="33"/>
-      <c r="I321" s="33"/>
-      <c r="J321" s="23"/>
+      <c r="A321" s="30"/>
+      <c r="B321" s="24"/>
+      <c r="C321" s="24"/>
+      <c r="D321" s="24"/>
+      <c r="E321" s="24"/>
+      <c r="F321" s="24"/>
+      <c r="G321" s="24"/>
+      <c r="H321" s="24"/>
+      <c r="I321" s="24"/>
+      <c r="J321" s="25"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="41"/>
@@ -7581,16 +7705,16 @@
       <c r="J335" s="43"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A336" s="22"/>
-      <c r="B336" s="33"/>
-      <c r="C336" s="33"/>
-      <c r="D336" s="33"/>
-      <c r="E336" s="33"/>
-      <c r="F336" s="33"/>
-      <c r="G336" s="33"/>
-      <c r="H336" s="33"/>
-      <c r="I336" s="33"/>
-      <c r="J336" s="23"/>
+      <c r="A336" s="30"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="24"/>
+      <c r="D336" s="24"/>
+      <c r="E336" s="24"/>
+      <c r="F336" s="24"/>
+      <c r="G336" s="24"/>
+      <c r="H336" s="24"/>
+      <c r="I336" s="24"/>
+      <c r="J336" s="25"/>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="41"/>
@@ -7761,16 +7885,16 @@
       <c r="J350" s="43"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A351" s="22"/>
-      <c r="B351" s="33"/>
-      <c r="C351" s="33"/>
-      <c r="D351" s="33"/>
-      <c r="E351" s="33"/>
-      <c r="F351" s="33"/>
-      <c r="G351" s="33"/>
-      <c r="H351" s="33"/>
-      <c r="I351" s="33"/>
-      <c r="J351" s="23"/>
+      <c r="A351" s="30"/>
+      <c r="B351" s="24"/>
+      <c r="C351" s="24"/>
+      <c r="D351" s="24"/>
+      <c r="E351" s="24"/>
+      <c r="F351" s="24"/>
+      <c r="G351" s="24"/>
+      <c r="H351" s="24"/>
+      <c r="I351" s="24"/>
+      <c r="J351" s="25"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="41"/>
@@ -7941,16 +8065,16 @@
       <c r="J365" s="43"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A366" s="22"/>
-      <c r="B366" s="33"/>
-      <c r="C366" s="33"/>
-      <c r="D366" s="33"/>
-      <c r="E366" s="33"/>
-      <c r="F366" s="33"/>
-      <c r="G366" s="33"/>
-      <c r="H366" s="33"/>
-      <c r="I366" s="33"/>
-      <c r="J366" s="23"/>
+      <c r="A366" s="30"/>
+      <c r="B366" s="24"/>
+      <c r="C366" s="24"/>
+      <c r="D366" s="24"/>
+      <c r="E366" s="24"/>
+      <c r="F366" s="24"/>
+      <c r="G366" s="24"/>
+      <c r="H366" s="24"/>
+      <c r="I366" s="24"/>
+      <c r="J366" s="25"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="41"/>
@@ -8121,16 +8245,16 @@
       <c r="J380" s="43"/>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A381" s="22"/>
-      <c r="B381" s="33"/>
-      <c r="C381" s="33"/>
-      <c r="D381" s="33"/>
-      <c r="E381" s="33"/>
-      <c r="F381" s="33"/>
-      <c r="G381" s="33"/>
-      <c r="H381" s="33"/>
-      <c r="I381" s="33"/>
-      <c r="J381" s="23"/>
+      <c r="A381" s="30"/>
+      <c r="B381" s="24"/>
+      <c r="C381" s="24"/>
+      <c r="D381" s="24"/>
+      <c r="E381" s="24"/>
+      <c r="F381" s="24"/>
+      <c r="G381" s="24"/>
+      <c r="H381" s="24"/>
+      <c r="I381" s="24"/>
+      <c r="J381" s="25"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="41"/>
@@ -8301,16 +8425,16 @@
       <c r="J395" s="43"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A396" s="22"/>
-      <c r="B396" s="33"/>
-      <c r="C396" s="33"/>
-      <c r="D396" s="33"/>
-      <c r="E396" s="33"/>
-      <c r="F396" s="33"/>
-      <c r="G396" s="33"/>
-      <c r="H396" s="33"/>
-      <c r="I396" s="33"/>
-      <c r="J396" s="23"/>
+      <c r="A396" s="30"/>
+      <c r="B396" s="24"/>
+      <c r="C396" s="24"/>
+      <c r="D396" s="24"/>
+      <c r="E396" s="24"/>
+      <c r="F396" s="24"/>
+      <c r="G396" s="24"/>
+      <c r="H396" s="24"/>
+      <c r="I396" s="24"/>
+      <c r="J396" s="25"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="41"/>
@@ -8481,315 +8605,327 @@
       <c r="J410" s="43"/>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A411" s="18"/>
-      <c r="B411" s="18"/>
-      <c r="C411" s="18"/>
-      <c r="D411" s="18"/>
-      <c r="E411" s="18"/>
-      <c r="F411" s="18"/>
-      <c r="G411" s="18"/>
-      <c r="H411" s="18"/>
-      <c r="I411" s="18"/>
-      <c r="J411" s="19"/>
+      <c r="A411" s="17"/>
+      <c r="B411" s="17"/>
+      <c r="C411" s="17"/>
+      <c r="D411" s="17"/>
+      <c r="E411" s="17"/>
+      <c r="F411" s="17"/>
+      <c r="G411" s="17"/>
+      <c r="H411" s="17"/>
+      <c r="I411" s="17"/>
+      <c r="J411" s="18"/>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A412" s="10"/>
-      <c r="B412" s="11"/>
-      <c r="C412" s="11"/>
-      <c r="D412" s="11"/>
-      <c r="E412" s="11"/>
-      <c r="F412" s="11"/>
-      <c r="G412" s="11"/>
-      <c r="H412" s="11"/>
-      <c r="I412" s="11"/>
-      <c r="J412" s="12"/>
+      <c r="A412" s="9"/>
+      <c r="B412" s="10"/>
+      <c r="C412" s="10"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
+      <c r="H412" s="10"/>
+      <c r="I412" s="10"/>
+      <c r="J412" s="11"/>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A413" s="10"/>
-      <c r="B413" s="11"/>
-      <c r="C413" s="11"/>
-      <c r="D413" s="11"/>
-      <c r="E413" s="11"/>
-      <c r="F413" s="11"/>
-      <c r="G413" s="11"/>
-      <c r="H413" s="11"/>
-      <c r="I413" s="11"/>
-      <c r="J413" s="12"/>
+      <c r="A413" s="9"/>
+      <c r="B413" s="10"/>
+      <c r="C413" s="10"/>
+      <c r="D413" s="10"/>
+      <c r="E413" s="10"/>
+      <c r="F413" s="10"/>
+      <c r="G413" s="10"/>
+      <c r="H413" s="10"/>
+      <c r="I413" s="10"/>
+      <c r="J413" s="11"/>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A414" s="10"/>
-      <c r="B414" s="11"/>
-      <c r="C414" s="11"/>
-      <c r="D414" s="11"/>
-      <c r="E414" s="11"/>
-      <c r="F414" s="11"/>
-      <c r="G414" s="11"/>
-      <c r="H414" s="11"/>
-      <c r="I414" s="11"/>
-      <c r="J414" s="12"/>
+      <c r="A414" s="9"/>
+      <c r="B414" s="10"/>
+      <c r="C414" s="10"/>
+      <c r="D414" s="10"/>
+      <c r="E414" s="10"/>
+      <c r="F414" s="10"/>
+      <c r="G414" s="10"/>
+      <c r="H414" s="10"/>
+      <c r="I414" s="10"/>
+      <c r="J414" s="11"/>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A415" s="10"/>
-      <c r="B415" s="11"/>
-      <c r="C415" s="11"/>
-      <c r="D415" s="11"/>
-      <c r="E415" s="11"/>
-      <c r="F415" s="11"/>
-      <c r="G415" s="11"/>
-      <c r="H415" s="11"/>
-      <c r="I415" s="11"/>
-      <c r="J415" s="12"/>
+      <c r="A415" s="9"/>
+      <c r="B415" s="10"/>
+      <c r="C415" s="10"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="10"/>
+      <c r="F415" s="10"/>
+      <c r="G415" s="10"/>
+      <c r="H415" s="10"/>
+      <c r="I415" s="10"/>
+      <c r="J415" s="11"/>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A416" s="10"/>
-      <c r="B416" s="11"/>
-      <c r="C416" s="11"/>
-      <c r="D416" s="11"/>
-      <c r="E416" s="11"/>
-      <c r="F416" s="11"/>
-      <c r="G416" s="11"/>
-      <c r="H416" s="11"/>
-      <c r="I416" s="11"/>
-      <c r="J416" s="12"/>
+      <c r="A416" s="9"/>
+      <c r="B416" s="10"/>
+      <c r="C416" s="10"/>
+      <c r="D416" s="10"/>
+      <c r="E416" s="10"/>
+      <c r="F416" s="10"/>
+      <c r="G416" s="10"/>
+      <c r="H416" s="10"/>
+      <c r="I416" s="10"/>
+      <c r="J416" s="11"/>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A417" s="10"/>
-      <c r="B417" s="11"/>
-      <c r="C417" s="11"/>
-      <c r="D417" s="11"/>
-      <c r="E417" s="11"/>
-      <c r="F417" s="11"/>
-      <c r="G417" s="11"/>
-      <c r="H417" s="11"/>
-      <c r="I417" s="11"/>
-      <c r="J417" s="12"/>
+      <c r="A417" s="9"/>
+      <c r="B417" s="10"/>
+      <c r="C417" s="10"/>
+      <c r="D417" s="10"/>
+      <c r="E417" s="10"/>
+      <c r="F417" s="10"/>
+      <c r="G417" s="10"/>
+      <c r="H417" s="10"/>
+      <c r="I417" s="10"/>
+      <c r="J417" s="11"/>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A418" s="10"/>
-      <c r="B418" s="11"/>
-      <c r="C418" s="11"/>
-      <c r="D418" s="11"/>
-      <c r="E418" s="11"/>
-      <c r="F418" s="11"/>
-      <c r="G418" s="11"/>
-      <c r="H418" s="11"/>
-      <c r="I418" s="11"/>
-      <c r="J418" s="12"/>
+      <c r="A418" s="9"/>
+      <c r="B418" s="10"/>
+      <c r="C418" s="10"/>
+      <c r="D418" s="10"/>
+      <c r="E418" s="10"/>
+      <c r="F418" s="10"/>
+      <c r="G418" s="10"/>
+      <c r="H418" s="10"/>
+      <c r="I418" s="10"/>
+      <c r="J418" s="11"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A419" s="10"/>
-      <c r="B419" s="11"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="11"/>
-      <c r="E419" s="11"/>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
-      <c r="H419" s="11"/>
-      <c r="I419" s="11"/>
-      <c r="J419" s="12"/>
+      <c r="A419" s="9"/>
+      <c r="B419" s="10"/>
+      <c r="C419" s="10"/>
+      <c r="D419" s="10"/>
+      <c r="E419" s="10"/>
+      <c r="F419" s="10"/>
+      <c r="G419" s="10"/>
+      <c r="H419" s="10"/>
+      <c r="I419" s="10"/>
+      <c r="J419" s="11"/>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A420" s="10"/>
-      <c r="B420" s="11"/>
-      <c r="C420" s="11"/>
-      <c r="D420" s="11"/>
-      <c r="E420" s="11"/>
-      <c r="F420" s="11"/>
-      <c r="G420" s="11"/>
-      <c r="H420" s="11"/>
-      <c r="I420" s="11"/>
-      <c r="J420" s="12"/>
+      <c r="A420" s="9"/>
+      <c r="B420" s="10"/>
+      <c r="C420" s="10"/>
+      <c r="D420" s="10"/>
+      <c r="E420" s="10"/>
+      <c r="F420" s="10"/>
+      <c r="G420" s="10"/>
+      <c r="H420" s="10"/>
+      <c r="I420" s="10"/>
+      <c r="J420" s="11"/>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A421" s="10"/>
-      <c r="B421" s="11"/>
-      <c r="C421" s="11"/>
-      <c r="D421" s="11"/>
-      <c r="E421" s="11"/>
-      <c r="F421" s="11"/>
-      <c r="G421" s="11"/>
-      <c r="H421" s="11"/>
-      <c r="I421" s="11"/>
-      <c r="J421" s="12"/>
+      <c r="A421" s="9"/>
+      <c r="B421" s="10"/>
+      <c r="C421" s="10"/>
+      <c r="D421" s="10"/>
+      <c r="E421" s="10"/>
+      <c r="F421" s="10"/>
+      <c r="G421" s="10"/>
+      <c r="H421" s="10"/>
+      <c r="I421" s="10"/>
+      <c r="J421" s="11"/>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A422" s="10"/>
-      <c r="B422" s="11"/>
-      <c r="C422" s="11"/>
-      <c r="D422" s="11"/>
-      <c r="E422" s="11"/>
-      <c r="F422" s="11"/>
-      <c r="G422" s="11"/>
-      <c r="H422" s="11"/>
-      <c r="I422" s="11"/>
-      <c r="J422" s="12"/>
+      <c r="A422" s="9"/>
+      <c r="B422" s="10"/>
+      <c r="C422" s="10"/>
+      <c r="D422" s="10"/>
+      <c r="E422" s="10"/>
+      <c r="F422" s="10"/>
+      <c r="G422" s="10"/>
+      <c r="H422" s="10"/>
+      <c r="I422" s="10"/>
+      <c r="J422" s="11"/>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A423" s="10"/>
-      <c r="B423" s="11"/>
-      <c r="C423" s="11"/>
-      <c r="D423" s="11"/>
-      <c r="E423" s="11"/>
-      <c r="F423" s="11"/>
-      <c r="G423" s="11"/>
-      <c r="H423" s="11"/>
-      <c r="I423" s="11"/>
-      <c r="J423" s="12"/>
+      <c r="A423" s="9"/>
+      <c r="B423" s="10"/>
+      <c r="C423" s="10"/>
+      <c r="D423" s="10"/>
+      <c r="E423" s="10"/>
+      <c r="F423" s="10"/>
+      <c r="G423" s="10"/>
+      <c r="H423" s="10"/>
+      <c r="I423" s="10"/>
+      <c r="J423" s="11"/>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A424" s="10"/>
-      <c r="B424" s="11"/>
-      <c r="C424" s="11"/>
-      <c r="D424" s="11"/>
-      <c r="E424" s="11"/>
-      <c r="F424" s="11"/>
-      <c r="G424" s="11"/>
-      <c r="H424" s="11"/>
-      <c r="I424" s="11"/>
-      <c r="J424" s="12"/>
+      <c r="A424" s="9"/>
+      <c r="B424" s="10"/>
+      <c r="C424" s="10"/>
+      <c r="D424" s="10"/>
+      <c r="E424" s="10"/>
+      <c r="F424" s="10"/>
+      <c r="G424" s="10"/>
+      <c r="H424" s="10"/>
+      <c r="I424" s="10"/>
+      <c r="J424" s="11"/>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A425" s="10"/>
-      <c r="B425" s="11"/>
-      <c r="C425" s="11"/>
-      <c r="D425" s="11"/>
-      <c r="E425" s="11"/>
-      <c r="F425" s="11"/>
-      <c r="G425" s="11"/>
-      <c r="H425" s="11"/>
-      <c r="I425" s="11"/>
-      <c r="J425" s="12"/>
+      <c r="A425" s="9"/>
+      <c r="B425" s="10"/>
+      <c r="C425" s="10"/>
+      <c r="D425" s="10"/>
+      <c r="E425" s="10"/>
+      <c r="F425" s="10"/>
+      <c r="G425" s="10"/>
+      <c r="H425" s="10"/>
+      <c r="I425" s="10"/>
+      <c r="J425" s="11"/>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A426" s="10"/>
-      <c r="B426" s="11"/>
-      <c r="C426" s="11"/>
-      <c r="D426" s="11"/>
-      <c r="E426" s="11"/>
-      <c r="F426" s="11"/>
-      <c r="G426" s="11"/>
-      <c r="H426" s="11"/>
-      <c r="I426" s="11"/>
-      <c r="J426" s="12"/>
+      <c r="A426" s="9"/>
+      <c r="B426" s="10"/>
+      <c r="C426" s="10"/>
+      <c r="D426" s="10"/>
+      <c r="E426" s="10"/>
+      <c r="F426" s="10"/>
+      <c r="G426" s="10"/>
+      <c r="H426" s="10"/>
+      <c r="I426" s="10"/>
+      <c r="J426" s="11"/>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A427" s="10"/>
-      <c r="B427" s="11"/>
-      <c r="C427" s="11"/>
-      <c r="D427" s="11"/>
-      <c r="E427" s="11"/>
-      <c r="F427" s="11"/>
-      <c r="G427" s="11"/>
-      <c r="H427" s="11"/>
-      <c r="I427" s="11"/>
-      <c r="J427" s="12"/>
+      <c r="A427" s="9"/>
+      <c r="B427" s="10"/>
+      <c r="C427" s="10"/>
+      <c r="D427" s="10"/>
+      <c r="E427" s="10"/>
+      <c r="F427" s="10"/>
+      <c r="G427" s="10"/>
+      <c r="H427" s="10"/>
+      <c r="I427" s="10"/>
+      <c r="J427" s="11"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A428" s="10"/>
-      <c r="B428" s="11"/>
-      <c r="C428" s="11"/>
-      <c r="D428" s="11"/>
-      <c r="E428" s="11"/>
-      <c r="F428" s="11"/>
-      <c r="G428" s="11"/>
-      <c r="H428" s="11"/>
-      <c r="I428" s="11"/>
-      <c r="J428" s="12"/>
+      <c r="A428" s="9"/>
+      <c r="B428" s="10"/>
+      <c r="C428" s="10"/>
+      <c r="D428" s="10"/>
+      <c r="E428" s="10"/>
+      <c r="F428" s="10"/>
+      <c r="G428" s="10"/>
+      <c r="H428" s="10"/>
+      <c r="I428" s="10"/>
+      <c r="J428" s="11"/>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A429" s="10"/>
-      <c r="B429" s="11"/>
-      <c r="C429" s="11"/>
-      <c r="D429" s="11"/>
-      <c r="E429" s="11"/>
-      <c r="F429" s="11"/>
-      <c r="G429" s="11"/>
-      <c r="H429" s="11"/>
-      <c r="I429" s="11"/>
-      <c r="J429" s="12"/>
+      <c r="A429" s="9"/>
+      <c r="B429" s="10"/>
+      <c r="C429" s="10"/>
+      <c r="D429" s="10"/>
+      <c r="E429" s="10"/>
+      <c r="F429" s="10"/>
+      <c r="G429" s="10"/>
+      <c r="H429" s="10"/>
+      <c r="I429" s="10"/>
+      <c r="J429" s="11"/>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A430" s="10"/>
-      <c r="B430" s="11"/>
-      <c r="C430" s="11"/>
-      <c r="D430" s="11"/>
-      <c r="E430" s="11"/>
-      <c r="F430" s="11"/>
-      <c r="G430" s="11"/>
-      <c r="H430" s="11"/>
-      <c r="I430" s="11"/>
-      <c r="J430" s="12"/>
+      <c r="A430" s="9"/>
+      <c r="B430" s="10"/>
+      <c r="C430" s="10"/>
+      <c r="D430" s="10"/>
+      <c r="E430" s="10"/>
+      <c r="F430" s="10"/>
+      <c r="G430" s="10"/>
+      <c r="H430" s="10"/>
+      <c r="I430" s="10"/>
+      <c r="J430" s="11"/>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A431" s="10"/>
-      <c r="B431" s="11"/>
-      <c r="C431" s="11"/>
-      <c r="D431" s="11"/>
-      <c r="E431" s="11"/>
-      <c r="F431" s="11"/>
-      <c r="G431" s="11"/>
-      <c r="H431" s="11"/>
-      <c r="I431" s="11"/>
-      <c r="J431" s="12"/>
+      <c r="A431" s="9"/>
+      <c r="B431" s="10"/>
+      <c r="C431" s="10"/>
+      <c r="D431" s="10"/>
+      <c r="E431" s="10"/>
+      <c r="F431" s="10"/>
+      <c r="G431" s="10"/>
+      <c r="H431" s="10"/>
+      <c r="I431" s="10"/>
+      <c r="J431" s="11"/>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A432" s="10"/>
-      <c r="B432" s="11"/>
-      <c r="C432" s="11"/>
-      <c r="D432" s="11"/>
-      <c r="E432" s="11"/>
-      <c r="F432" s="11"/>
-      <c r="G432" s="11"/>
-      <c r="H432" s="11"/>
-      <c r="I432" s="11"/>
-      <c r="J432" s="12"/>
+      <c r="A432" s="9"/>
+      <c r="B432" s="10"/>
+      <c r="C432" s="10"/>
+      <c r="D432" s="10"/>
+      <c r="E432" s="10"/>
+      <c r="F432" s="10"/>
+      <c r="G432" s="10"/>
+      <c r="H432" s="10"/>
+      <c r="I432" s="10"/>
+      <c r="J432" s="11"/>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A433" s="10"/>
-      <c r="B433" s="11"/>
-      <c r="C433" s="11"/>
-      <c r="D433" s="11"/>
-      <c r="E433" s="11"/>
-      <c r="F433" s="11"/>
-      <c r="G433" s="11"/>
-      <c r="H433" s="11"/>
-      <c r="I433" s="11"/>
-      <c r="J433" s="12"/>
+      <c r="A433" s="9"/>
+      <c r="B433" s="10"/>
+      <c r="C433" s="10"/>
+      <c r="D433" s="10"/>
+      <c r="E433" s="10"/>
+      <c r="F433" s="10"/>
+      <c r="G433" s="10"/>
+      <c r="H433" s="10"/>
+      <c r="I433" s="10"/>
+      <c r="J433" s="11"/>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A434" s="13"/>
-      <c r="B434" s="14"/>
-      <c r="C434" s="14"/>
-      <c r="D434" s="14"/>
-      <c r="E434" s="14"/>
-      <c r="F434" s="14"/>
-      <c r="G434" s="14"/>
-      <c r="H434" s="14"/>
-      <c r="I434" s="14"/>
-      <c r="J434" s="15"/>
+      <c r="A434" s="12"/>
+      <c r="B434" s="13"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+      <c r="G434" s="13"/>
+      <c r="H434" s="13"/>
+      <c r="I434" s="13"/>
+      <c r="J434" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A367:J380"/>
-    <mergeCell ref="A381:J381"/>
-    <mergeCell ref="A382:J395"/>
-    <mergeCell ref="A396:J396"/>
-    <mergeCell ref="A397:J410"/>
-    <mergeCell ref="A336:J336"/>
-    <mergeCell ref="A337:J350"/>
-    <mergeCell ref="A351:J351"/>
-    <mergeCell ref="A352:J365"/>
-    <mergeCell ref="A366:J366"/>
-    <mergeCell ref="A292:J305"/>
-    <mergeCell ref="A306:J306"/>
-    <mergeCell ref="A307:J320"/>
-    <mergeCell ref="A321:J321"/>
-    <mergeCell ref="A322:J335"/>
-    <mergeCell ref="A261:J261"/>
-    <mergeCell ref="A262:J275"/>
-    <mergeCell ref="A276:J276"/>
-    <mergeCell ref="A277:J290"/>
-    <mergeCell ref="A291:J291"/>
+    <mergeCell ref="A217:J230"/>
+    <mergeCell ref="A231:J231"/>
+    <mergeCell ref="A232:J245"/>
+    <mergeCell ref="A246:J246"/>
+    <mergeCell ref="A247:J260"/>
+    <mergeCell ref="A171:J171"/>
+    <mergeCell ref="A172:J185"/>
+    <mergeCell ref="A201:J201"/>
+    <mergeCell ref="A202:J215"/>
+    <mergeCell ref="A216:J216"/>
+    <mergeCell ref="A186:J186"/>
+    <mergeCell ref="A187:J200"/>
+    <mergeCell ref="A127:J140"/>
+    <mergeCell ref="A141:J141"/>
+    <mergeCell ref="A142:J155"/>
+    <mergeCell ref="A156:J156"/>
+    <mergeCell ref="A157:J170"/>
+    <mergeCell ref="A96:J96"/>
+    <mergeCell ref="A97:J110"/>
+    <mergeCell ref="A111:J111"/>
+    <mergeCell ref="A112:J125"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="A52:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A82:J95"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J50"/>
+    <mergeCell ref="A51:J51"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:J20"/>
@@ -8797,38 +8933,26 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A82:J95"/>
-    <mergeCell ref="A96:J96"/>
-    <mergeCell ref="A97:J110"/>
-    <mergeCell ref="A111:J111"/>
-    <mergeCell ref="A112:J125"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="A127:J140"/>
-    <mergeCell ref="A141:J141"/>
-    <mergeCell ref="A142:J155"/>
-    <mergeCell ref="A156:J156"/>
-    <mergeCell ref="A157:J170"/>
-    <mergeCell ref="A171:J171"/>
-    <mergeCell ref="A172:J185"/>
-    <mergeCell ref="A201:J201"/>
-    <mergeCell ref="A202:J215"/>
-    <mergeCell ref="A216:J216"/>
-    <mergeCell ref="A186:J186"/>
-    <mergeCell ref="A187:J200"/>
-    <mergeCell ref="A217:J230"/>
-    <mergeCell ref="A231:J231"/>
-    <mergeCell ref="A232:J245"/>
-    <mergeCell ref="A246:J246"/>
-    <mergeCell ref="A247:J260"/>
+    <mergeCell ref="A261:J261"/>
+    <mergeCell ref="A262:J275"/>
+    <mergeCell ref="A276:J276"/>
+    <mergeCell ref="A277:J290"/>
+    <mergeCell ref="A291:J291"/>
+    <mergeCell ref="A292:J305"/>
+    <mergeCell ref="A306:J306"/>
+    <mergeCell ref="A307:J320"/>
+    <mergeCell ref="A321:J321"/>
+    <mergeCell ref="A322:J335"/>
+    <mergeCell ref="A336:J336"/>
+    <mergeCell ref="A337:J350"/>
+    <mergeCell ref="A351:J351"/>
+    <mergeCell ref="A352:J365"/>
+    <mergeCell ref="A366:J366"/>
+    <mergeCell ref="A367:J380"/>
+    <mergeCell ref="A381:J381"/>
+    <mergeCell ref="A382:J395"/>
+    <mergeCell ref="A396:J396"/>
+    <mergeCell ref="A397:J410"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
